--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_MIkolajewski.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_MIkolajewski.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,12 +463,15 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:28:46.96</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45687.51998796297</v>
       </c>
       <c r="B2" t="n">
         <v>5320.7</v>
@@ -480,12 +487,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:31:43.16</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45687.52202731482</v>
       </c>
       <c r="B3" t="n">
         <v>5496.9</v>
@@ -501,12 +511,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:32:54.36</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45687.52285138889</v>
       </c>
       <c r="B4" t="n">
         <v>5568.1</v>
@@ -522,12 +535,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:28:46.76</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45687.51998564815</v>
       </c>
       <c r="B5" t="n">
         <v>5320.5</v>
@@ -543,12 +559,15 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:31:42.86</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45687.52202384259</v>
       </c>
       <c r="B6" t="n">
         <v>5496.6</v>
@@ -564,12 +583,15 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:32:54.16</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45687.52284907408</v>
       </c>
       <c r="B7" t="n">
         <v>5567.9</v>
@@ -585,256 +607,585 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:28:34.66</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>45684.59172523148</v>
       </c>
       <c r="B8" t="n">
+        <v>525</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.736757789339338</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45684.59349143518</v>
+      </c>
+      <c r="B9" t="n">
+        <v>677.6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.993386421884807</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45684.59414537037</v>
+      </c>
+      <c r="B10" t="n">
+        <v>734.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.19777490411486</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45684.59210833333</v>
+      </c>
+      <c r="B11" t="n">
+        <v>558.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.734153338841029</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45684.59348912037</v>
+      </c>
+      <c r="B12" t="n">
+        <v>677.4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.910983051572527</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45684.59414305555</v>
+      </c>
+      <c r="B13" t="n">
+        <v>733.9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.041442751884461</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45684.59857013889</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1116.4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.801578249250139</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45684.60083518519</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1312.1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.749141931533814</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45684.60317893518</v>
+      </c>
+      <c r="B16" t="n">
         <v>1514.6</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C16" t="n">
         <v>10.88</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D16" t="n">
         <v>3.320722034999303</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:36:16.16</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1976.1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.745329482214792</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>27.01.2025 15:03:02.46</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3582.4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.43826355252947</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:28:34.56</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45684.59856898148</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1116.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.894017015184676</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45684.60317777778</v>
+      </c>
+      <c r="B18" t="n">
         <v>1514.5</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C18" t="n">
         <v>9.539999999999999</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D18" t="n">
         <v>3.221963201250348</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:36:15.96</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1975.9</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.46247148513794</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>27.01.2025 15:03:02.26</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3582.2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.133638586316789</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:26:22.88</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4829.7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4.108752455030167</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:42:10.98</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5777.8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3.971781287874494</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:48:57.38</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6184.2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.996008123670307</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:14:08.48</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4095.3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.395573650087628</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:26:22.68</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4829.5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3.718723808016094</v>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:48:57.08</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>45684.6039949074</v>
       </c>
       <c r="B19" t="n">
-        <v>6183.9</v>
+        <v>1585.1</v>
       </c>
       <c r="C19" t="n">
-        <v>9.9</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>3.227296505655561</v>
+        <v>2.803569725581578</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>5-10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45686.47265717592</v>
+      </c>
+      <c r="B20" t="n">
+        <v>884.4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9649090596607753</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45686.47783078704</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1331.4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.022371675286974</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45686.47819768519</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1363.1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.327337375708989</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45686.47597662037</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1171.2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.159049306597029</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45686.47642800926</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1210.2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.053060940333777</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45686.47709699074</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1268</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.802566766738891</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45686.48738865741</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2157.2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.920514413288662</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45686.48800555555</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2210.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.699334178652081</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45686.49229606482</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2581.2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.934707062585013</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45686.49086550926</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2457.6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.75393385546548</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45686.49257152778</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2605</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.706500717571804</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45686.50051365741</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3291.2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.74220027242388</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
